--- a/Saved_file/EM003/2026_03/sap_data.xlsx
+++ b/Saved_file/EM003/2026_03/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-03-31</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST6892</t>
+          <t>CUST9294</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17835360</v>
+        <v>27380339</v>
       </c>
       <c r="E2" t="n">
-        <v>2829578</v>
+        <v>6380323</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -524,17 +524,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST2742</t>
+          <t>CUST1993</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>37944011</v>
+        <v>28243253</v>
       </c>
       <c r="E3" t="n">
-        <v>8762834</v>
+        <v>6694616</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,12 +583,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST3489</t>
+          <t>CUST5810</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17809638</v>
+        <v>21308232</v>
       </c>
       <c r="E4" t="n">
-        <v>2835411</v>
+        <v>3815025</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -637,12 +637,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-31</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST6778</t>
+          <t>CUST9558</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31348852</v>
+        <v>39607305</v>
       </c>
       <c r="E5" t="n">
-        <v>5466248</v>
+        <v>9785912</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST7247</t>
+          <t>CUST3762</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15676430</v>
+        <v>26245434</v>
       </c>
       <c r="E6" t="n">
-        <v>3658944</v>
+        <v>4222841</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST3489</t>
+          <t>CUST7381</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>34298348</v>
+        <v>35667220</v>
       </c>
       <c r="E7" t="n">
-        <v>5973644</v>
+        <v>7993529</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST9843</t>
+          <t>CUST3762</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34601004</v>
+        <v>17316620</v>
       </c>
       <c r="E8" t="n">
-        <v>6665219</v>
+        <v>3694619</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST2221</t>
+          <t>CUST1993</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16990114</v>
+        <v>21676669</v>
       </c>
       <c r="E9" t="n">
-        <v>4208823</v>
+        <v>3754316</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-03-25</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST2326</t>
+          <t>CUST6124</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22522188</v>
+        <v>29172566</v>
       </c>
       <c r="E10" t="n">
-        <v>5244817</v>
+        <v>6227138</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -978,25 +978,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST4862</t>
+          <t>CUST1371</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36246453</v>
+        <v>29790274</v>
       </c>
       <c r="E11" t="n">
-        <v>6833862</v>
+        <v>6890293</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST2606</t>
+          <t>CUST7728</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>33701606</v>
+        <v>21678236</v>
       </c>
       <c r="E12" t="n">
-        <v>8291523</v>
+        <v>3636952</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST5894</t>
+          <t>CUST4911</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21045584</v>
+        <v>32632325</v>
       </c>
       <c r="E13" t="n">
-        <v>4823676</v>
+        <v>5016504</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST9843</t>
+          <t>CUST2622</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20084587</v>
+        <v>25308720</v>
       </c>
       <c r="E14" t="n">
-        <v>4940171</v>
+        <v>6271181</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST2041</t>
+          <t>CUST7533</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30499886</v>
+        <v>25588600</v>
       </c>
       <c r="E15" t="n">
-        <v>7028001</v>
+        <v>4785159</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST6892</t>
+          <t>CUST5663</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>19157344</v>
+        <v>27083709</v>
       </c>
       <c r="E16" t="n">
-        <v>4033446</v>
+        <v>5763510</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,17 +1280,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST8799</t>
+          <t>CUST1647</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>16895734</v>
+        <v>25257285</v>
       </c>
       <c r="E17" t="n">
-        <v>2689494</v>
+        <v>5644335</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST4222</t>
+          <t>CUST3074</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17909933</v>
+        <v>33453810</v>
       </c>
       <c r="E18" t="n">
-        <v>3019540</v>
+        <v>5585294</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1410,25 +1410,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST4831</t>
+          <t>CUST7381</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15776891</v>
+        <v>17929606</v>
       </c>
       <c r="E19" t="n">
-        <v>3572690</v>
+        <v>3565692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-31</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST7944</t>
+          <t>CUST5595</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>37876969</v>
+        <v>16691739</v>
       </c>
       <c r="E20" t="n">
-        <v>5870022</v>
+        <v>3466876</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1518,25 +1518,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST7247</t>
+          <t>CUST4750</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>22209855</v>
+        <v>26635891</v>
       </c>
       <c r="E21" t="n">
-        <v>5489604</v>
+        <v>5298666</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST5894</t>
+          <t>CUST5663</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>23660512</v>
+        <v>18349085</v>
       </c>
       <c r="E22" t="n">
-        <v>4493833</v>
+        <v>3128899</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST5710</t>
+          <t>CUST6365</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>38886194</v>
+        <v>21550380</v>
       </c>
       <c r="E23" t="n">
-        <v>8543043</v>
+        <v>4547775</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1658,12 +1658,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST1731</t>
+          <t>CUST3762</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>30505767</v>
+        <v>30536520</v>
       </c>
       <c r="E24" t="n">
-        <v>6328767</v>
+        <v>6614688</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST2041</t>
+          <t>CUST2622</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>35350289</v>
+        <v>15245050</v>
       </c>
       <c r="E25" t="n">
-        <v>6957460</v>
+        <v>2956411</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST7606</t>
+          <t>CUST6365</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>37550440</v>
+        <v>30258169</v>
       </c>
       <c r="E26" t="n">
-        <v>7582213</v>
+        <v>6224346</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST9453</t>
+          <t>CUST3728</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>20788734</v>
+        <v>21945953</v>
       </c>
       <c r="E27" t="n">
-        <v>4147300</v>
+        <v>4709521</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1879,12 +1879,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST5005</t>
+          <t>CUST3728</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24383796</v>
+        <v>21998480</v>
       </c>
       <c r="E28" t="n">
-        <v>4582357</v>
+        <v>4405945</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST7239</t>
+          <t>CUST7118</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>27023150</v>
+        <v>33800776</v>
       </c>
       <c r="E29" t="n">
-        <v>5317984</v>
+        <v>7893657</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST6892</t>
+          <t>CUST8990</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>39687091</v>
+        <v>35071907</v>
       </c>
       <c r="E30" t="n">
-        <v>9733203</v>
+        <v>8299335</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2058,25 +2058,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST6778</t>
+          <t>CUST4432</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15894912</v>
+        <v>37623902</v>
       </c>
       <c r="E31" t="n">
-        <v>2516490</v>
+        <v>6663618</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2112,25 +2112,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST7975</t>
+          <t>CUST4432</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>38528734</v>
+        <v>34074979</v>
       </c>
       <c r="E32" t="n">
-        <v>8706334</v>
+        <v>6122248</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2144,12 +2144,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-31</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST5005</t>
+          <t>CUST7532</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>39040147</v>
+        <v>29447037</v>
       </c>
       <c r="E33" t="n">
-        <v>9690950</v>
+        <v>5112054</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2220,25 +2220,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST6778</t>
+          <t>CUST4750</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>24504433</v>
+        <v>38851587</v>
       </c>
       <c r="E34" t="n">
-        <v>4611899</v>
+        <v>9325736</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2257,12 +2257,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST8936</t>
+          <t>CUST7728</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>18621947</v>
+        <v>35651480</v>
       </c>
       <c r="E35" t="n">
-        <v>3917198</v>
+        <v>6348987</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST1594</t>
+          <t>CUST1960</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>26089728</v>
+        <v>30277905</v>
       </c>
       <c r="E36" t="n">
-        <v>5356446</v>
+        <v>7426325</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST8936</t>
+          <t>CUST9558</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>19096965</v>
+        <v>27479367</v>
       </c>
       <c r="E37" t="n">
-        <v>3496835</v>
+        <v>5722519</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST2112</t>
+          <t>CUST2622</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>29850725</v>
+        <v>24748964</v>
       </c>
       <c r="E38" t="n">
-        <v>6335536</v>
+        <v>4014371</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST9670</t>
+          <t>CUST8990</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>22404764</v>
+        <v>35197432</v>
       </c>
       <c r="E39" t="n">
-        <v>3598991</v>
+        <v>5369873</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2544,25 +2544,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST7975</t>
+          <t>CUST6201</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>31469492</v>
+        <v>38425031</v>
       </c>
       <c r="E40" t="n">
-        <v>6244897</v>
+        <v>9166242</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST5894</t>
+          <t>CUST1960</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>20357683</v>
+        <v>33435581</v>
       </c>
       <c r="E41" t="n">
-        <v>4581760</v>
+        <v>5546631</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,17 +2630,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST5240</t>
+          <t>CUST6201</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>35460426</v>
+        <v>31611975</v>
       </c>
       <c r="E42" t="n">
-        <v>7824382</v>
+        <v>6230389</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST1468</t>
+          <t>CUST5595</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>24792012</v>
+        <v>34311309</v>
       </c>
       <c r="E43" t="n">
-        <v>3906519</v>
+        <v>5999214</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST7944</t>
+          <t>CUST4432</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>15297902</v>
+        <v>30098947</v>
       </c>
       <c r="E44" t="n">
-        <v>3248602</v>
+        <v>4962620</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST6892</t>
+          <t>CUST7381</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>15272383</v>
+        <v>32565291</v>
       </c>
       <c r="E45" t="n">
-        <v>3577532</v>
+        <v>6242454</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST2041</t>
+          <t>CUST4540</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>15582703</v>
+        <v>16074197</v>
       </c>
       <c r="E46" t="n">
-        <v>2471776</v>
+        <v>3598353</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2900,17 +2900,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST5005</t>
+          <t>CUST6124</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>27698944</v>
+        <v>28960474</v>
       </c>
       <c r="E47" t="n">
-        <v>6706128</v>
+        <v>4370137</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST1594</t>
+          <t>CUST3728</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>35861682</v>
+        <v>38146861</v>
       </c>
       <c r="E48" t="n">
-        <v>7183417</v>
+        <v>5881571</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST8479</t>
+          <t>CUST5487</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>38128670</v>
+        <v>32261564</v>
       </c>
       <c r="E49" t="n">
-        <v>9129453</v>
+        <v>8026595</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST7975</t>
+          <t>CUST2622</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>35831507</v>
+        <v>31816964</v>
       </c>
       <c r="E50" t="n">
-        <v>8834882</v>
+        <v>5509676</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST2041</t>
+          <t>CUST2397</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>37379040</v>
+        <v>22812742</v>
       </c>
       <c r="E51" t="n">
-        <v>7426523</v>
+        <v>3731169</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST7975</t>
+          <t>CUST5663</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>27702775</v>
+        <v>24170781</v>
       </c>
       <c r="E52" t="n">
-        <v>5897566</v>
+        <v>3879110</v>
       </c>
       <c r="F52" t="n">
         <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST2742</t>
+          <t>CUST7346</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>17746436</v>
+        <v>24534895</v>
       </c>
       <c r="E53" t="n">
-        <v>2986253</v>
+        <v>6029207</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,17 +3278,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST1731</t>
+          <t>CUST7532</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>27683755</v>
+        <v>15448779</v>
       </c>
       <c r="E54" t="n">
-        <v>6655698</v>
+        <v>3418018</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST4862</t>
+          <t>CUST1953</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>24922313</v>
+        <v>20649069</v>
       </c>
       <c r="E55" t="n">
-        <v>5772220</v>
+        <v>4921396</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST5737</t>
+          <t>CUST1647</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>24375630</v>
+        <v>21532275</v>
       </c>
       <c r="E56" t="n">
-        <v>4550135</v>
+        <v>4825855</v>
       </c>
       <c r="F56" t="n">
         <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST2742</t>
+          <t>CUST5663</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>21539800</v>
+        <v>18918726</v>
       </c>
       <c r="E57" t="n">
-        <v>5307337</v>
+        <v>3988060</v>
       </c>
       <c r="F57" t="n">
         <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST9670</t>
+          <t>CUST5663</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>17211349</v>
+        <v>20642404</v>
       </c>
       <c r="E58" t="n">
-        <v>2894318</v>
+        <v>4906574</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST5710</t>
+          <t>CUST4911</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>28280813</v>
+        <v>22664280</v>
       </c>
       <c r="E59" t="n">
-        <v>6421140</v>
+        <v>5570933</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST2593</t>
+          <t>CUST4432</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>23151651</v>
+        <v>16424996</v>
       </c>
       <c r="E60" t="n">
-        <v>4952088</v>
+        <v>3381225</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST5240</t>
+          <t>CUST4750</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>18802157</v>
+        <v>19614785</v>
       </c>
       <c r="E61" t="n">
-        <v>4065959</v>
+        <v>4435274</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-30</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST9843</t>
+          <t>CUST6365</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>23922318</v>
+        <v>19247766</v>
       </c>
       <c r="E62" t="n">
-        <v>4378165</v>
+        <v>3719270</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3769,12 +3769,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3786,25 +3786,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST1594</t>
+          <t>CUST3074</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>33719613</v>
+        <v>34255418</v>
       </c>
       <c r="E63" t="n">
-        <v>6309153</v>
+        <v>5342738</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3840,25 +3840,25 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST6892</t>
+          <t>CUST5487</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>15833162</v>
+        <v>39970615</v>
       </c>
       <c r="E64" t="n">
-        <v>2673906</v>
+        <v>7934992</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3872,17 +3872,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3894,29 +3894,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST2434</t>
+          <t>CUST1993</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>19920231</v>
+        <v>24384968</v>
       </c>
       <c r="E65" t="n">
-        <v>4336068</v>
+        <v>4492533</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3926,17 +3926,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST7975</t>
+          <t>CUST3728</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>21927043</v>
+        <v>23303441</v>
       </c>
       <c r="E66" t="n">
-        <v>3722350</v>
+        <v>4683589</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3980,17 +3980,17 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-31</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST7606</t>
+          <t>CUST1960</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>36208730</v>
+        <v>24134716</v>
       </c>
       <c r="E67" t="n">
-        <v>5844172</v>
+        <v>4186781</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4034,17 +4034,17 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4056,29 +4056,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST7840</t>
+          <t>CUST3074</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>27729566</v>
+        <v>33410323</v>
       </c>
       <c r="E68" t="n">
-        <v>4820464</v>
+        <v>7231077</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4088,17 +4088,17 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4110,25 +4110,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-30</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST9089</t>
+          <t>CUST4432</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>21744057</v>
+        <v>34343220</v>
       </c>
       <c r="E69" t="n">
-        <v>4940334</v>
+        <v>7255710</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4142,17 +4142,17 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST2593</t>
+          <t>CUST4432</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>27718855</v>
+        <v>24910838</v>
       </c>
       <c r="E70" t="n">
-        <v>4927996</v>
+        <v>4363979</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4196,17 +4196,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4223,20 +4223,20 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST7640</t>
+          <t>CUST3634</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32075631</v>
+        <v>29282888</v>
       </c>
       <c r="E71" t="n">
-        <v>5360148</v>
+        <v>5959357</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4272,25 +4272,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST8936</t>
+          <t>CUST2221</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>35296423</v>
+        <v>16300614</v>
       </c>
       <c r="E72" t="n">
-        <v>5617652</v>
+        <v>2905659</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4304,17 +4304,17 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4326,25 +4326,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-31</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST7272</t>
+          <t>CUST3407</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>35143670</v>
+        <v>20008189</v>
       </c>
       <c r="E73" t="n">
-        <v>7228604</v>
+        <v>3901567</v>
       </c>
       <c r="F73" t="n">
         <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4380,29 +4380,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST6892</t>
+          <t>CUST2622</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39624147</v>
+        <v>32295139</v>
       </c>
       <c r="E74" t="n">
-        <v>7671945</v>
+        <v>6902089</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4412,12 +4412,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4434,29 +4434,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST7640</t>
+          <t>CUST3246</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>39979402</v>
+        <v>33785076</v>
       </c>
       <c r="E75" t="n">
-        <v>6051696</v>
+        <v>5872535</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4466,17 +4466,17 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4488,29 +4488,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST4831</t>
+          <t>CUST8074</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>34430023</v>
+        <v>15426152</v>
       </c>
       <c r="E76" t="n">
-        <v>6858971</v>
+        <v>3520063</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4520,17 +4520,17 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST6778</t>
+          <t>CUST5810</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>17169424</v>
+        <v>15029169</v>
       </c>
       <c r="E77" t="n">
-        <v>4226451</v>
+        <v>2891392</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4596,29 +4596,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST6892</t>
+          <t>CUST9558</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>27049242</v>
+        <v>36112727</v>
       </c>
       <c r="E78" t="n">
-        <v>4197380</v>
+        <v>7347658</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4628,17 +4628,17 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4650,29 +4650,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST1731</t>
+          <t>CUST8326</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>20155844</v>
+        <v>22495695</v>
       </c>
       <c r="E79" t="n">
-        <v>4427975</v>
+        <v>4022469</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4704,25 +4704,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST7787</t>
+          <t>CUST2622</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>29093132</v>
+        <v>27992536</v>
       </c>
       <c r="E80" t="n">
-        <v>6798426</v>
+        <v>6718178</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4736,12 +4736,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -4758,25 +4758,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST5894</t>
+          <t>CUST3407</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>24345918</v>
+        <v>23113266</v>
       </c>
       <c r="E81" t="n">
-        <v>4140158</v>
+        <v>3847370</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4790,17 +4790,17 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST7098</t>
+          <t>CUST7258</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>24257289</v>
+        <v>34177187</v>
       </c>
       <c r="E82" t="n">
-        <v>5553514</v>
+        <v>5138514</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4849,12 +4849,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4866,29 +4866,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST2112</t>
+          <t>CUST2684</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>24027753</v>
+        <v>24746923</v>
       </c>
       <c r="E83" t="n">
-        <v>4435548</v>
+        <v>5212993</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4920,29 +4920,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST1409</t>
+          <t>CUST2737</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>30322861</v>
+        <v>25298539</v>
       </c>
       <c r="E84" t="n">
-        <v>7160922</v>
+        <v>4109422</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4974,29 +4974,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST7944</t>
+          <t>CUST7346</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>26445558</v>
+        <v>21872858</v>
       </c>
       <c r="E85" t="n">
-        <v>5718179</v>
+        <v>4449709</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5006,17 +5006,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST5710</t>
+          <t>CUST7381</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>34914450</v>
+        <v>39908951</v>
       </c>
       <c r="E86" t="n">
-        <v>7841081</v>
+        <v>6352572</v>
       </c>
       <c r="F86" t="n">
         <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5060,17 +5060,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST4831</t>
+          <t>CUST1953</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>17659796</v>
+        <v>28915860</v>
       </c>
       <c r="E87" t="n">
-        <v>3437719</v>
+        <v>4443735</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5136,25 +5136,25 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-03-26</t>
+          <t>2026-03-30</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST9474</t>
+          <t>CUST2737</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>22370743</v>
+        <v>15384709</v>
       </c>
       <c r="E88" t="n">
-        <v>4637387</v>
+        <v>2898877</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5168,17 +5168,17 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST1468</t>
+          <t>CUST3407</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>22709385</v>
+        <v>26641305</v>
       </c>
       <c r="E89" t="n">
-        <v>4794796</v>
+        <v>5685422</v>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST2593</t>
+          <t>CUST8990</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>15247563</v>
+        <v>33729915</v>
       </c>
       <c r="E90" t="n">
-        <v>3671227</v>
+        <v>5856518</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST5952</t>
+          <t>CUST4750</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>18060477</v>
+        <v>22750848</v>
       </c>
       <c r="E91" t="n">
-        <v>2918074</v>
+        <v>4705958</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>82.8</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7010468</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1121814</v>
       </c>
     </row>
     <row r="3">
@@ -5416,16 +5416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.7</v>
+        <v>78.7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3172471</v>
+        <v>4986239</v>
       </c>
       <c r="E3" t="n">
-        <v>737063</v>
+        <v>1285194</v>
       </c>
     </row>
     <row r="4">
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>5682691</v>
+        <v>5744512</v>
       </c>
       <c r="E4" t="n">
-        <v>1703967</v>
+        <v>1332987</v>
       </c>
     </row>
     <row r="5">
@@ -5454,16 +5454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.8</v>
+        <v>80.3</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2724116</v>
+        <v>6176479</v>
       </c>
       <c r="E5" t="n">
-        <v>750217</v>
+        <v>1493396</v>
       </c>
     </row>
     <row r="6">
@@ -5473,16 +5473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>11200774</v>
+        <v>11933451</v>
       </c>
       <c r="E6" t="n">
-        <v>2563093</v>
+        <v>1898905</v>
       </c>
     </row>
     <row r="7">
@@ -5492,16 +5492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.7</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>17438819</v>
+        <v>2915876</v>
       </c>
       <c r="E7" t="n">
-        <v>3494777</v>
+        <v>734473</v>
       </c>
     </row>
     <row r="8">
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>66.8</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3627190</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>457869</v>
       </c>
     </row>
     <row r="9">
@@ -5530,16 +5530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>71.2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3015228</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>846719</v>
       </c>
     </row>
     <row r="10">
@@ -5549,16 +5549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1894086</v>
+        <v>4347988</v>
       </c>
       <c r="E10" t="n">
-        <v>217899</v>
+        <v>573559</v>
       </c>
     </row>
     <row r="11">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.5</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>15758457</v>
+        <v>14014728</v>
       </c>
       <c r="E11" t="n">
-        <v>2791313</v>
+        <v>2426974</v>
       </c>
     </row>
     <row r="12">
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.8</v>
+        <v>83.5</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>9419960</v>
+        <v>7973738</v>
       </c>
       <c r="E12" t="n">
-        <v>1545816</v>
+        <v>1471865</v>
       </c>
     </row>
     <row r="13">
@@ -5606,16 +5606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>4814143</v>
+        <v>7801433</v>
       </c>
       <c r="E13" t="n">
-        <v>876533</v>
+        <v>1607372</v>
       </c>
     </row>
     <row r="14">
@@ -5625,16 +5625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.40000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>14631781</v>
+        <v>16426501</v>
       </c>
       <c r="E14" t="n">
-        <v>1973996</v>
+        <v>4272232</v>
       </c>
     </row>
     <row r="15">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.7</v>
+        <v>81</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>6460279</v>
+        <v>8459249</v>
       </c>
       <c r="E15" t="n">
-        <v>1021554</v>
+        <v>971234</v>
       </c>
     </row>
     <row r="16">
@@ -5663,16 +5663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>66.2</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3419634</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>507984</v>
       </c>
     </row>
     <row r="17">
@@ -5682,16 +5682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>5269813</v>
+        <v>7793950</v>
       </c>
       <c r="E17" t="n">
-        <v>1080191</v>
+        <v>1277764</v>
       </c>
     </row>
     <row r="18">
@@ -5701,16 +5701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1798426</v>
+        <v>7358666</v>
       </c>
       <c r="E18" t="n">
-        <v>499800</v>
+        <v>1290697</v>
       </c>
     </row>
     <row r="19">
@@ -5720,16 +5720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.5</v>
+        <v>75.7</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>9015183</v>
+        <v>11864830</v>
       </c>
       <c r="E19" t="n">
-        <v>2250257</v>
+        <v>1866942</v>
       </c>
     </row>
     <row r="20">
@@ -5739,16 +5739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>85.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>8562539</v>
+        <v>4478320</v>
       </c>
       <c r="E20" t="n">
-        <v>1004110</v>
+        <v>884925</v>
       </c>
     </row>
     <row r="21">
@@ -5758,16 +5758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>86.3</v>
+        <v>75.8</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4828566</v>
+        <v>6274161</v>
       </c>
       <c r="E21" t="n">
-        <v>1272715</v>
+        <v>1010889</v>
       </c>
     </row>
     <row r="22">
@@ -5815,16 +5815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85.5</v>
+        <v>81.7</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>11663315</v>
+        <v>17892940</v>
       </c>
       <c r="E24" t="n">
-        <v>1383769</v>
+        <v>1827905</v>
       </c>
     </row>
     <row r="25">
@@ -5834,16 +5834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80</v>
+        <v>84.5</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>12434721</v>
+        <v>10106879</v>
       </c>
       <c r="E25" t="n">
-        <v>3242345</v>
+        <v>2125962</v>
       </c>
     </row>
     <row r="26">
@@ -5853,16 +5853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>86.7</v>
+        <v>83.5</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>6807803</v>
+        <v>7635852</v>
       </c>
       <c r="E26" t="n">
-        <v>1018455</v>
+        <v>1834916</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80</v>
+        <v>85.2</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>1855684</v>
+        <v>9655816</v>
       </c>
       <c r="E27" t="n">
-        <v>187402</v>
+        <v>2015021</v>
       </c>
     </row>
     <row r="28">
@@ -5891,16 +5891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87.8</v>
+        <v>85.8</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>3895628</v>
+        <v>6765971</v>
       </c>
       <c r="E28" t="n">
-        <v>1026598</v>
+        <v>945417</v>
       </c>
     </row>
     <row r="29">
@@ -5948,16 +5948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.8</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5664345</v>
+        <v>7722155</v>
       </c>
       <c r="E31" t="n">
-        <v>818134</v>
+        <v>854110</v>
       </c>
     </row>
     <row r="32">
@@ -5967,16 +5967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>76.5</v>
+        <v>80.5</v>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3882469</v>
+        <v>7752821</v>
       </c>
       <c r="E32" t="n">
-        <v>821034</v>
+        <v>1271870</v>
       </c>
     </row>
   </sheetData>
